--- a/Output_excel/06_Mean_tbt.xlsx
+++ b/Output_excel/06_Mean_tbt.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +439,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,6 +552,9 @@
       <c r="P4">
         <v>29</v>
       </c>
+      <c r="Q4">
+        <v>170</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -599,6 +607,9 @@
       <c r="P5">
         <v>64</v>
       </c>
+      <c r="Q5">
+        <v>180</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -673,6 +684,9 @@
       <c r="P7">
         <v>6.4</v>
       </c>
+      <c r="Q7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -706,6 +720,9 @@
       </c>
       <c r="P8">
         <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
